--- a/tz.xlsx
+++ b/tz.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdgbi\Desktop\S\Vision\predvidenie_vision\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401BF530-E92B-430B-9407-75461D0F0D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="482" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" tabRatio="482"/>
   </bookViews>
   <sheets>
     <sheet name="главная страница" sheetId="1" r:id="rId1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Промежуток времени</t>
   </si>
@@ -67,12 +61,24 @@
   </si>
   <si>
     <t>Прогноз</t>
+  </si>
+  <si>
+    <t>окружение</t>
+  </si>
+  <si>
+    <t>поведение</t>
+  </si>
+  <si>
+    <t>ценности</t>
+  </si>
+  <si>
+    <t>миссия</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -421,33 +427,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -458,54 +464,74 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/tz.xlsx
+++ b/tz.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdgbi\Desktop\S\Vision\predvidenie_vision\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76929E77-16A0-4E46-BF5A-F70DA8D99754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" tabRatio="482"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="482" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="главная страница" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>Промежуток времени</t>
   </si>
@@ -27,9 +33,6 @@
     <t>Главная страница</t>
   </si>
   <si>
-    <t>знания</t>
-  </si>
-  <si>
     <t>навыки</t>
   </si>
   <si>
@@ -73,12 +76,162 @@
   </si>
   <si>
     <t>миссия</t>
+  </si>
+  <si>
+    <t>проактивность</t>
+  </si>
+  <si>
+    <t>обучения</t>
+  </si>
+  <si>
+    <t>адаптивность</t>
+  </si>
+  <si>
+    <t>настойчивость</t>
+  </si>
+  <si>
+    <t>структуры данных и алгоритмы</t>
+  </si>
+  <si>
+    <t>базы данных</t>
+  </si>
+  <si>
+    <t>английский язык</t>
+  </si>
+  <si>
+    <t>аналитическое мышление</t>
+  </si>
+  <si>
+    <t>работы в команде</t>
+  </si>
+  <si>
+    <t>написания чистого кода, соответствующего принципам (DRY – Don’t repeat yourself (не повторяй себя), You ain’t gonna need it – вам это не понадобится, KISS – keep it simple stupid (делайте вещи проще)</t>
+  </si>
+  <si>
+    <t>декомпозиции задач</t>
+  </si>
+  <si>
+    <t>проектирования решений</t>
+  </si>
+  <si>
+    <t>язык программирования Ассемблер</t>
+  </si>
+  <si>
+    <t>язык программирования С++</t>
+  </si>
+  <si>
+    <t>язык программирования PHP</t>
+  </si>
+  <si>
+    <t>язык программирования JavaScript</t>
+  </si>
+  <si>
+    <t>язык программирования SQL</t>
+  </si>
+  <si>
+    <t>язык гипертекстовой разметки HTML</t>
+  </si>
+  <si>
+    <t>каскадные таблицы стилпей CSS</t>
+  </si>
+  <si>
+    <t>препроцессор SASS</t>
+  </si>
+  <si>
+    <t>препроцессор LESS</t>
+  </si>
+  <si>
+    <t>препроцессор SCSS</t>
+  </si>
+  <si>
+    <t>фреймворк Yii2</t>
+  </si>
+  <si>
+    <t>операционная система UNIX</t>
+  </si>
+  <si>
+    <t>операционная система LINUX</t>
+  </si>
+  <si>
+    <t>операционная система Microsoft Windows</t>
+  </si>
+  <si>
+    <t>операционная система MacOS</t>
+  </si>
+  <si>
+    <t>операционная система Android</t>
+  </si>
+  <si>
+    <t>распределённая система управления версиями git</t>
+  </si>
+  <si>
+    <t>компьютерные сети</t>
+  </si>
+  <si>
+    <t>библиотека React</t>
+  </si>
+  <si>
+    <t>фреймворк Vue</t>
+  </si>
+  <si>
+    <t>библиотека Redux</t>
+  </si>
+  <si>
+    <t>фреймворк React Native</t>
+  </si>
+  <si>
+    <t>программная платформа Node</t>
+  </si>
+  <si>
+    <t>фреймворк Angular</t>
+  </si>
+  <si>
+    <t>библиотека Backbone</t>
+  </si>
+  <si>
+    <t>знания и опыт</t>
+  </si>
+  <si>
+    <t>сборщик WEBPACK</t>
+  </si>
+  <si>
+    <t>менеджер задач Grunt</t>
+  </si>
+  <si>
+    <t>менеджер задач Gulp</t>
+  </si>
+  <si>
+    <t>фреймворк для тестирования Jest</t>
+  </si>
+  <si>
+    <t>GraphQL</t>
+  </si>
+  <si>
+    <t>BFF</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>CI/CD</t>
+  </si>
+  <si>
+    <t>AWS</t>
+  </si>
+  <si>
+    <t>решения задач</t>
+  </si>
+  <si>
+    <t>Microsoft Azure</t>
+  </si>
+  <si>
+    <t>общения</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -118,9 +271,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -427,114 +583,405 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.21875" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="B46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="B53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>